--- a/biology/Médecine/Sharaf_al-Zamān_Ṭāhir_al-Marwazī/Sharaf_al-Zamān_Ṭāhir_al-Marwazī.xlsx
+++ b/biology/Médecine/Sharaf_al-Zamān_Ṭāhir_al-Marwazī/Sharaf_al-Zamān_Ṭāhir_al-Marwazī.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sharaf_al-Zam%C4%81n_%E1%B9%AC%C4%81hir_al-Marwaz%C4%AB</t>
+          <t>Sharaf_al-Zamān_Ṭāhir_al-Marwazī</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sharaf al-Zamān Ṭāhir al-Marwazī ou Marvazī (arabe : شرف الزمان طاهر المروزي; 1056 ou 1057 - 1124 ou 1125) est médecin. Il a écrit une Nature des Animaux (كتاب طبائع الحيوان البحري والبري Kitāb Ṭabāʾiʿ al-Ḥayawān al-Baḥrī wa-al-Barrī).
 Il est né à Merv, dans le Khorassan, en Perse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sharaf_al-Zam%C4%81n_%E1%B9%AC%C4%81hir_al-Marwaz%C4%AB</t>
+          <t>Sharaf_al-Zamān_Ṭāhir_al-Marwazī</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Nature des Animaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Al-Marwazī s'appuie sur les travaux d'Aristote, Dioscoride, Claude Galien, Oribase, Timothée de Gaza, Paul d'Egine, et le polygraphe arabe al-Jahiz. Le livre comporte cinq chapitres[1]. :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Al-Marwazī s'appuie sur les travaux d'Aristote, Dioscoride, Claude Galien, Oribase, Timothée de Gaza, Paul d'Egine, et le polygraphe arabe al-Jahiz. Le livre comporte cinq chapitres. :
 Des êtres humains
 Des quadrupèdes sauvages et domestiques
 Des oiseaux terrestres et marins
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sharaf_al-Zam%C4%81n_%E1%B9%AC%C4%81hir_al-Marwaz%C4%AB</t>
+          <t>Sharaf_al-Zamān_Ṭāhir_al-Marwazī</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Médecin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al-Marwazi fut médecin à la cour du sultan seldjoukide Malik Shah I et de ses successeurs[2]. En tant que médecin, il témoigna de ses observations sur les vers parasites[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Marwazi fut médecin à la cour du sultan seldjoukide Malik Shah I et de ses successeurs. En tant que médecin, il témoigna de ses observations sur les vers parasites.
 </t>
         </is>
       </c>
